--- a/Rendu de projet/Rendu-Projet-Part1.xlsx
+++ b/Rendu de projet/Rendu-Projet-Part1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Binome</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -659,61 +662,97 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.5">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.5">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.5">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.5">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.5">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.5">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="17.5">
+    <row r="17" spans="1:2" ht="17.5">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="17.5">
+    <row r="18" spans="1:2" ht="17.5">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="17.5">
+    <row r="19" spans="1:2" ht="17.5">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="17.5">
+    <row r="20" spans="1:2" ht="17.5">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="17.5">
+    <row r="21" spans="1:2" ht="17.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="17.5">
+    <row r="22" spans="1:2" ht="17.5">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>

--- a/Rendu de projet/Rendu-Projet-Part1.xlsx
+++ b/Rendu de projet/Rendu-Projet-Part1.xlsx
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -695,7 +695,7 @@
     </row>
     <row r="15" spans="1:12" ht="17.5">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
